--- a/kosztorys.xlsx
+++ b/kosztorys.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Silnik krokowy 2</t>
   </si>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>20.06.14</t>
+  </si>
+  <si>
+    <t>obejmy do PV + rurka CU 15</t>
+  </si>
+  <si>
+    <t>19.09.14</t>
+  </si>
+  <si>
+    <t>Śruby M8 + podkładki M8+narkętki M8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trymer 1MR </t>
+  </si>
+  <si>
+    <t>dławik drutowy 4u7</t>
   </si>
 </sst>
 </file>
@@ -437,7 +452,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,20 +583,64 @@
         <v>22</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="C23">
         <f>SUM(C1:C21)</f>
-        <v>331.09999999999997</v>
+        <v>366.29999999999995</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="1">
         <f>C23/2</f>
-        <v>165.54999999999998</v>
+        <v>183.14999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/kosztorys.xlsx
+++ b/kosztorys.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Silnik krokowy 2</t>
   </si>
@@ -100,6 +100,20 @@
   </si>
   <si>
     <t>dławik drutowy 4u7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Mosfet 20V
+P-Mosfet 20V
+68n/50V 
+47n/50
+fotorezystor LDR07 50kR
+rezystor pomiarowy 0R1
+dławik drutowy 20u
+tranzystor PNP
+</t>
+  </si>
+  <si>
+    <t>12.10.14</t>
   </si>
 </sst>
 </file>
@@ -145,9 +159,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -452,7 +469,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,20 +644,31 @@
         <v>15</v>
       </c>
     </row>
+    <row r="16" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="C23">
         <f>SUM(C1:C21)</f>
-        <v>366.29999999999995</v>
+        <v>391.29999999999995</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="1">
         <f>C23/2</f>
-        <v>183.14999999999998</v>
+        <v>195.64999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/kosztorys.xlsx
+++ b/kosztorys.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Silnik krokowy 2</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>12.10.14</t>
+  </si>
+  <si>
+    <t>19.02.15</t>
+  </si>
+  <si>
+    <t>Wył. krańcowy 28mm z długą dźwignią 53mm - 2szt</t>
   </si>
 </sst>
 </file>
@@ -469,7 +475,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,20 +661,31 @@
         <v>29</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="C23">
         <f>SUM(C1:C21)</f>
-        <v>391.29999999999995</v>
+        <v>397.29999999999995</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="1">
         <f>C23/2</f>
-        <v>195.64999999999998</v>
+        <v>198.64999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/kosztorys.xlsx
+++ b/kosztorys.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Silnik krokowy 2</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>Wył. krańcowy 28mm z długą dźwignią 53mm - 2szt</t>
+  </si>
+  <si>
+    <t>Modół GPS - GTS-4E-60 - cena za 2szt</t>
+  </si>
+  <si>
+    <t>17.04.15</t>
+  </si>
+  <si>
+    <t>Prototypy.com - bordy cyfrowe</t>
+  </si>
+  <si>
+    <t>03.05.15</t>
   </si>
 </sst>
 </file>
@@ -475,7 +487,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,20 +684,42 @@
         <v>30</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>57.8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>146.6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="C23">
         <f>SUM(C1:C21)</f>
-        <v>397.29999999999995</v>
+        <v>601.69999999999993</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="1">
         <f>C23/2</f>
-        <v>198.64999999999998</v>
+        <v>300.84999999999997</v>
       </c>
     </row>
   </sheetData>
